--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H2">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N2">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O2">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P2">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q2">
-        <v>185.3465378094807</v>
+        <v>354.4118703864505</v>
       </c>
       <c r="R2">
-        <v>1668.118840285326</v>
+        <v>3189.706833478054</v>
       </c>
       <c r="S2">
-        <v>0.02651203574150563</v>
+        <v>0.07694440242766093</v>
       </c>
       <c r="T2">
-        <v>0.02651203574150563</v>
+        <v>0.07694440242766096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H3">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
         <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P3">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q3">
-        <v>47.80299846033979</v>
+        <v>79.61128999694289</v>
       </c>
       <c r="R3">
-        <v>430.2269861430581</v>
+        <v>716.501609972486</v>
       </c>
       <c r="S3">
-        <v>0.006837758172933297</v>
+        <v>0.0172839671781608</v>
       </c>
       <c r="T3">
-        <v>0.006837758172933299</v>
+        <v>0.01728396717816081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H4">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N4">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O4">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P4">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q4">
-        <v>8.782588009112891</v>
+        <v>8.727419455211779</v>
       </c>
       <c r="R4">
-        <v>79.04329208201601</v>
+        <v>78.546775096906</v>
       </c>
       <c r="S4">
-        <v>0.001256264562329523</v>
+        <v>0.001894761803504439</v>
       </c>
       <c r="T4">
-        <v>0.001256264562329524</v>
+        <v>0.00189476180350444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H5">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N5">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O5">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P5">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q5">
-        <v>9.197235130194445</v>
+        <v>12.42303202557922</v>
       </c>
       <c r="R5">
-        <v>82.77511617175</v>
+        <v>111.807288230213</v>
       </c>
       <c r="S5">
-        <v>0.001315575836357887</v>
+        <v>0.002697095823866152</v>
       </c>
       <c r="T5">
-        <v>0.001315575836357887</v>
+        <v>0.002697095823866153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H6">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N6">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O6">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P6">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q6">
-        <v>2.573977280692333</v>
+        <v>4.623129260024889</v>
       </c>
       <c r="R6">
-        <v>23.165795526231</v>
+        <v>41.608163340224</v>
       </c>
       <c r="S6">
-        <v>0.0003681826403128421</v>
+        <v>0.001003702042684316</v>
       </c>
       <c r="T6">
-        <v>0.0003681826403128422</v>
+        <v>0.001003702042684316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H7">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N7">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O7">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P7">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q7">
-        <v>8.213003022015888</v>
+        <v>16.76893296862767</v>
       </c>
       <c r="R7">
-        <v>73.917027198143</v>
+        <v>150.920396717649</v>
       </c>
       <c r="S7">
-        <v>0.001174790919960962</v>
+        <v>0.003640610358828113</v>
       </c>
       <c r="T7">
-        <v>0.001174790919960962</v>
+        <v>0.003640610358828114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N8">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O8">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P8">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q8">
-        <v>2169.390617790777</v>
+        <v>2490.818120573539</v>
       </c>
       <c r="R8">
-        <v>19524.515560117</v>
+        <v>22417.36308516185</v>
       </c>
       <c r="S8">
-        <v>0.3103104178577978</v>
+        <v>0.5407677559855445</v>
       </c>
       <c r="T8">
-        <v>0.3103104178577978</v>
+        <v>0.5407677559855447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
         <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P9">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q9">
-        <v>559.5107283240743</v>
+        <v>559.5107283240742</v>
       </c>
       <c r="R9">
-        <v>5035.596554916669</v>
+        <v>5035.596554916668</v>
       </c>
       <c r="S9">
-        <v>0.08003261675344302</v>
+        <v>0.121472281940834</v>
       </c>
       <c r="T9">
-        <v>0.08003261675344303</v>
+        <v>0.1214722819408341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N10">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O10">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P10">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q10">
-        <v>102.7958992494151</v>
+        <v>61.33658700873644</v>
       </c>
       <c r="R10">
-        <v>925.1630932447362</v>
+        <v>552.0292830786281</v>
       </c>
       <c r="S10">
-        <v>0.01470396257297287</v>
+        <v>0.01331644741242247</v>
       </c>
       <c r="T10">
-        <v>0.01470396257297287</v>
+        <v>0.01331644741242247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N11">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O11">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P11">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q11">
-        <v>107.6491411000556</v>
+        <v>87.30947202202157</v>
       </c>
       <c r="R11">
-        <v>968.8422699005001</v>
+        <v>785.785248198194</v>
       </c>
       <c r="S11">
-        <v>0.01539817204096202</v>
+        <v>0.01895527693156483</v>
       </c>
       <c r="T11">
-        <v>0.01539817204096203</v>
+        <v>0.01895527693156484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N12">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O12">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P12">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q12">
-        <v>30.12714577318066</v>
+        <v>32.49150239259022</v>
       </c>
       <c r="R12">
-        <v>271.144311958626</v>
+        <v>292.423521533312</v>
       </c>
       <c r="S12">
-        <v>0.004309397817558046</v>
+        <v>0.007054050511481823</v>
       </c>
       <c r="T12">
-        <v>0.004309397817558048</v>
+        <v>0.007054050511481825</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N13">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O13">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P13">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q13">
-        <v>96.12918541895311</v>
+        <v>117.8526048108847</v>
       </c>
       <c r="R13">
-        <v>865.1626687705781</v>
+        <v>1060.673443297962</v>
       </c>
       <c r="S13">
-        <v>0.01375035341770891</v>
+        <v>0.0255863276865669</v>
       </c>
       <c r="T13">
-        <v>0.01375035341770891</v>
+        <v>0.02558632768656691</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H14">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N14">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O14">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P14">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q14">
-        <v>47.68857889729266</v>
+        <v>45.04748027692466</v>
       </c>
       <c r="R14">
-        <v>429.1972100756339</v>
+        <v>405.427322492322</v>
       </c>
       <c r="S14">
-        <v>0.006821391557290598</v>
+        <v>0.009780009475981491</v>
       </c>
       <c r="T14">
-        <v>0.006821391557290599</v>
+        <v>0.009780009475981497</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H15">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
         <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P15">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q15">
-        <v>12.29943159740245</v>
+        <v>10.11898391565533</v>
       </c>
       <c r="R15">
-        <v>110.694884376622</v>
+        <v>91.07085524089798</v>
       </c>
       <c r="S15">
-        <v>0.001759315139976991</v>
+        <v>0.002196876672658362</v>
       </c>
       <c r="T15">
-        <v>0.001759315139976992</v>
+        <v>0.002196876672658363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H16">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N16">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O16">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P16">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q16">
-        <v>2.259708469038222</v>
+        <v>1.109297652328667</v>
       </c>
       <c r="R16">
-        <v>20.337376221344</v>
+        <v>9.983678870958</v>
       </c>
       <c r="S16">
-        <v>0.0003232295159357429</v>
+        <v>0.0002408334824670692</v>
       </c>
       <c r="T16">
-        <v>0.0003232295159357429</v>
+        <v>0.0002408334824670693</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H17">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N17">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O17">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P17">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q17">
-        <v>2.366394745361111</v>
+        <v>1.579028065684333</v>
       </c>
       <c r="R17">
-        <v>21.29755270825</v>
+        <v>14.211252591159</v>
       </c>
       <c r="S17">
-        <v>0.0003384899594510568</v>
+        <v>0.0003428140564200226</v>
       </c>
       <c r="T17">
-        <v>0.0003384899594510569</v>
+        <v>0.0003428140564200227</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H18">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N18">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O18">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P18">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q18">
-        <v>0.6622692826143333</v>
+        <v>0.5876223161813333</v>
       </c>
       <c r="R18">
-        <v>5.960423543528999</v>
+        <v>5.288600845632</v>
       </c>
       <c r="S18">
-        <v>9.473123748996393E-05</v>
+        <v>0.0001275754334143186</v>
       </c>
       <c r="T18">
-        <v>9.473123748996396E-05</v>
+        <v>0.0001275754334143186</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H19">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N19">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O19">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P19">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q19">
-        <v>2.113157587015222</v>
+        <v>2.131413308323</v>
       </c>
       <c r="R19">
-        <v>19.018418283137</v>
+        <v>19.182719774907</v>
       </c>
       <c r="S19">
-        <v>0.0003022668248163827</v>
+        <v>0.0004627393635445991</v>
       </c>
       <c r="T19">
-        <v>0.0003022668248163828</v>
+        <v>0.0004627393635445993</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H20">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N20">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O20">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P20">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q20">
-        <v>2403.483969497659</v>
+        <v>482.1102301256858</v>
       </c>
       <c r="R20">
-        <v>21631.35572547892</v>
+        <v>4338.992071131172</v>
       </c>
       <c r="S20">
-        <v>0.3437952154733928</v>
+        <v>0.1046682875515255</v>
       </c>
       <c r="T20">
-        <v>0.3437952154733928</v>
+        <v>0.1046682875515255</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H21">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N21">
         <v>133.658642</v>
       </c>
       <c r="O21">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P21">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q21">
-        <v>619.8860893287805</v>
+        <v>108.2960830267275</v>
       </c>
       <c r="R21">
-        <v>5578.974803959024</v>
+        <v>974.664747240548</v>
       </c>
       <c r="S21">
-        <v>0.08866873020762808</v>
+        <v>0.0235115640586808</v>
       </c>
       <c r="T21">
-        <v>0.0886687302076281</v>
+        <v>0.0235115640586808</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H22">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N22">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O22">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P22">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q22">
-        <v>113.8883398636942</v>
+        <v>11.87200134512311</v>
       </c>
       <c r="R22">
-        <v>1024.995058773248</v>
+        <v>106.848012106108</v>
       </c>
       <c r="S22">
-        <v>0.016290629286589</v>
+        <v>0.00257746459825068</v>
       </c>
       <c r="T22">
-        <v>0.016290629286589</v>
+        <v>0.002577464598250681</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H23">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N23">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O23">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P23">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q23">
-        <v>119.2652825371111</v>
+        <v>16.89918236141489</v>
       </c>
       <c r="R23">
-        <v>1073.387542834</v>
+        <v>152.092641252734</v>
       </c>
       <c r="S23">
-        <v>0.01705974910950248</v>
+        <v>0.00366888808463806</v>
       </c>
       <c r="T23">
-        <v>0.01705974910950249</v>
+        <v>0.003668888084638061</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H24">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N24">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O24">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P24">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q24">
-        <v>33.37808844508533</v>
+        <v>6.288891816803556</v>
       </c>
       <c r="R24">
-        <v>300.4027960057679</v>
+        <v>56.600026351232</v>
       </c>
       <c r="S24">
-        <v>0.004774413832045012</v>
+        <v>0.001365346545104479</v>
       </c>
       <c r="T24">
-        <v>0.004774413832045013</v>
+        <v>0.001365346545104479</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H25">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N25">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O25">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P25">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q25">
-        <v>106.5022381218782</v>
+        <v>22.81095755526466</v>
       </c>
       <c r="R25">
-        <v>958.5201430969039</v>
+        <v>205.298617997382</v>
       </c>
       <c r="S25">
-        <v>0.01523411862454087</v>
+        <v>0.00495236092396887</v>
       </c>
       <c r="T25">
-        <v>0.01523411862454088</v>
+        <v>0.00495236092396887</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H26">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N26">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O26">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P26">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q26">
-        <v>14.59434932813</v>
+        <v>31.36971843332556</v>
       </c>
       <c r="R26">
-        <v>131.34914395317</v>
+        <v>282.32746589993</v>
       </c>
       <c r="S26">
-        <v>0.002087581001427315</v>
+        <v>0.00681050619592479</v>
       </c>
       <c r="T26">
-        <v>0.002087581001427315</v>
+        <v>0.006810506195924792</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H27">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N27">
         <v>133.658642</v>
       </c>
       <c r="O27">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P27">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q27">
-        <v>3.764050123123335</v>
+        <v>7.04655786104111</v>
       </c>
       <c r="R27">
-        <v>33.87645110811001</v>
+        <v>63.41902074936999</v>
       </c>
       <c r="S27">
-        <v>0.0005384110897158609</v>
+        <v>0.001529839232524965</v>
       </c>
       <c r="T27">
-        <v>0.000538411089715861</v>
+        <v>0.001529839232524965</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H28">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N28">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O28">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P28">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q28">
-        <v>0.6915487007466669</v>
+        <v>0.7724817192522222</v>
       </c>
       <c r="R28">
-        <v>6.223938306720001</v>
+        <v>6.95233547327</v>
       </c>
       <c r="S28">
-        <v>9.891937603945677E-05</v>
+        <v>0.0001677092367401325</v>
       </c>
       <c r="T28">
-        <v>9.891937603945677E-05</v>
+        <v>0.0001677092367401325</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H29">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N29">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O29">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P29">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q29">
-        <v>0.7241983795833334</v>
+        <v>1.099587935092778</v>
       </c>
       <c r="R29">
-        <v>6.517785416250001</v>
+        <v>9.896291415835</v>
       </c>
       <c r="S29">
-        <v>0.0001035895978979096</v>
+        <v>0.0002387254594213332</v>
       </c>
       <c r="T29">
-        <v>0.0001035895978979096</v>
+        <v>0.0002387254594213333</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H30">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N30">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O30">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P30">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q30">
-        <v>0.202677233905</v>
+        <v>0.4092026122311111</v>
       </c>
       <c r="R30">
-        <v>1.824095105145</v>
+        <v>3.68282351008</v>
       </c>
       <c r="S30">
-        <v>2.899102477329362E-05</v>
+        <v>8.883971757387401E-05</v>
       </c>
       <c r="T30">
-        <v>2.899102477329363E-05</v>
+        <v>8.883971757387403E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H31">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N31">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O31">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P31">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q31">
-        <v>0.6466990781316668</v>
+        <v>1.484252502828333</v>
       </c>
       <c r="R31">
-        <v>5.820291703185001</v>
+        <v>13.358272525455</v>
       </c>
       <c r="S31">
-        <v>9.250406981461559E-05</v>
+        <v>0.0003222378577708394</v>
       </c>
       <c r="T31">
-        <v>9.250406981461562E-05</v>
+        <v>0.0003222378577708395</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H32">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I32">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J32">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N32">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O32">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P32">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q32">
-        <v>126.73944741744</v>
+        <v>21.68545790641</v>
       </c>
       <c r="R32">
-        <v>1140.65502675696</v>
+        <v>195.16912115769</v>
       </c>
       <c r="S32">
-        <v>0.01812885635470429</v>
+        <v>0.004708009915580705</v>
       </c>
       <c r="T32">
-        <v>0.01812885635470429</v>
+        <v>0.004708009915580707</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H33">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I33">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J33">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N33">
         <v>133.658642</v>
       </c>
       <c r="O33">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P33">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q33">
-        <v>32.68755748752</v>
+        <v>4.87118920769</v>
       </c>
       <c r="R33">
-        <v>294.18801738768</v>
+        <v>43.84070286920999</v>
       </c>
       <c r="S33">
-        <v>0.004675640034357965</v>
+        <v>0.001057556966952277</v>
       </c>
       <c r="T33">
-        <v>0.004675640034357966</v>
+        <v>0.001057556966952277</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H34">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I34">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J34">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N34">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O34">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P34">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q34">
-        <v>6.005509271040001</v>
+        <v>0.53400606199</v>
       </c>
       <c r="R34">
-        <v>54.04958343936</v>
+        <v>4.80605455791</v>
       </c>
       <c r="S34">
-        <v>0.0008590302161641549</v>
+        <v>0.0001159351047913994</v>
       </c>
       <c r="T34">
-        <v>0.0008590302161641549</v>
+        <v>0.0001159351047913995</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H35">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I35">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J35">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N35">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O35">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P35">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q35">
-        <v>6.28904382</v>
+        <v>0.760130121395</v>
       </c>
       <c r="R35">
-        <v>56.60139438</v>
+        <v>6.841171092555</v>
       </c>
       <c r="S35">
-        <v>0.0008995871004999499</v>
+        <v>0.0001650276495937583</v>
       </c>
       <c r="T35">
-        <v>0.0008995871004999502</v>
+        <v>0.0001650276495937584</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H36">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I36">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J36">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N36">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O36">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P36">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q36">
-        <v>1.76007851064</v>
+        <v>0.28287617696</v>
       </c>
       <c r="R36">
-        <v>15.84070659576</v>
+        <v>2.54588559264</v>
       </c>
       <c r="S36">
-        <v>0.0002517622661498498</v>
+        <v>6.141368338897657E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002517622661498498</v>
+        <v>6.141368338897658E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H37">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I37">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J37">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N37">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O37">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P37">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q37">
-        <v>5.61602863992</v>
+        <v>1.026043483335</v>
       </c>
       <c r="R37">
-        <v>50.54425775927999</v>
+        <v>9.234391350014999</v>
       </c>
       <c r="S37">
-        <v>0.0008033187659535675</v>
+        <v>0.0002227586299632743</v>
       </c>
       <c r="T37">
-        <v>0.0008033187659535677</v>
+        <v>0.0002227586299632743</v>
       </c>
     </row>
   </sheetData>
